--- a/dsTaiKhoan1.xlsx
+++ b/dsTaiKhoan1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ToolRegGoethe\ToolRegGoethe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AutoReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68FBBA-74B1-425D-B697-1E9459820431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017C892-A4D7-4584-A5CD-3DF319C54DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>24/11/2024 8:0:0</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Thuydung12</t>
+  </si>
+  <si>
+    <t>B1-T-N</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,10 +485,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -513,21 +513,21 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
